--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>
@@ -1991,18 +1991,6 @@
       <c r="C53" t="s">
         <v>113</v>
       </c>
-      <c r="D53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>

--- a/src/main/resources/dataProviders/excelFiles/Data.xlsx
+++ b/src/main/resources/dataProviders/excelFiles/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>Excel Sample Data</t>
   </si>
